--- a/data/trans_camb/P22_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P22_R2-Clase-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.9721355592662364</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>10.56906475918196</v>
+        <v>10.56906475918195</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.968723324447217</v>
+        <v>-7.322576917792047</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.920156901962361</v>
+        <v>-7.646477775391694</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.243058054707969</v>
+        <v>3.119042126980052</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.467345622972095</v>
+        <v>-6.90500953621392</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.470708524193507</v>
+        <v>-3.527910216839619</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.701456211733718</v>
+        <v>8.608663926422409</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.882819089243344</v>
+        <v>-5.877865858581519</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.339535657734305</v>
+        <v>-4.513020712645302</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.776813430552242</v>
+        <v>7.16481286466464</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.196228422393407</v>
+        <v>1.023742865655165</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7047373658010347</v>
+        <v>0.5090029526359395</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.72826238854375</v>
+        <v>12.33446582783819</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.047468417931491</v>
+        <v>3.961156142824557</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.76668814738952</v>
+        <v>7.65876484685807</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>18.2492739568754</v>
+        <v>18.64827528607066</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9054308842586534</v>
+        <v>1.08176710278533</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.318815583459575</v>
+        <v>2.458823914492815</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.00234436062821</v>
+        <v>14.15808903969925</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.07490070397499163</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.814320989777931</v>
+        <v>0.8143209897779305</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4992954590222309</v>
+        <v>-0.4791195706527331</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5072394286712107</v>
+        <v>-0.5165571933291182</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2056247386427352</v>
+        <v>0.1973104553602416</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4414438654704466</v>
+        <v>-0.4661438544326111</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2362794398467372</v>
+        <v>-0.2220886294839683</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4591771533231114</v>
+        <v>0.5146697982637767</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4046386321853276</v>
+        <v>-0.398467255407768</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3073509587744548</v>
+        <v>-0.2994889761399428</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4450691663245358</v>
+        <v>0.4725842934899395</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1259553581881304</v>
+        <v>0.1091023730168913</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.09542186884222004</v>
+        <v>0.04862233573479875</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.193328109466866</v>
+        <v>1.111370530853254</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4228223998755285</v>
+        <v>0.4118333630742276</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7696576974336032</v>
+        <v>0.76023722572736</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.869129613001249</v>
+        <v>1.926483863330168</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07619339307915002</v>
+        <v>0.09664586775470284</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1939635285820518</v>
+        <v>0.2130641280610548</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.238746918467793</v>
+        <v>1.28216236584876</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-4.290772033021025</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9.519707887608913</v>
+        <v>9.519707887608908</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.02464452227090713</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.854645094041953</v>
+        <v>-7.381556131255327</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.862304806420832</v>
+        <v>-9.521287167116995</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.525090303652143</v>
+        <v>4.386677699152469</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.650729300897831</v>
+        <v>-4.598304813332311</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.479015040330174</v>
+        <v>-4.154012545613284</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.270671296336943</v>
+        <v>6.381681051325312</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.382486105575288</v>
+        <v>-4.321863361261438</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.132120011394963</v>
+        <v>-5.182908132661574</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.693152741074614</v>
+        <v>6.998383347860031</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.399284284084678</v>
+        <v>2.519556225646584</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.10583823415443</v>
+        <v>-0.1842848750755417</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.8716954175337</v>
+        <v>14.62989584667289</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.698749265254374</v>
+        <v>4.665003643394865</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.19906533574291</v>
+        <v>4.749116997381055</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>15.53164872883654</v>
+        <v>14.94259566809372</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.107373905348976</v>
+        <v>2.050566889088993</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.053345251770138</v>
+        <v>1.141313006407372</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>13.69349024315409</v>
+        <v>13.91157590902928</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.4093125919338816</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.9081200958577068</v>
+        <v>0.9081200958577063</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.002623028583971614</v>
@@ -974,7 +974,7 @@
         <v>-0.003713968267874391</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1.175636231521179</v>
+        <v>1.175636231521178</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1057903564383706</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5048041653203298</v>
+        <v>-0.5228414066732679</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6644784819627536</v>
+        <v>-0.6887286271315305</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3199657515609811</v>
+        <v>0.335882230675794</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4092702156447151</v>
+        <v>-0.3960415443577621</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3888945387962725</v>
+        <v>-0.3635302673505839</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.493739341100648</v>
+        <v>0.5308204526795379</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3867967974578987</v>
+        <v>-0.3790002642061039</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4469576474430941</v>
+        <v>-0.4565044806365028</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5824123392313588</v>
+        <v>0.5896014078925027</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3509683184281535</v>
+        <v>0.3260528995651991</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.05008428198263469</v>
+        <v>0.001759070674736426</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.943111095111904</v>
+        <v>1.86725768189172</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6295406862940836</v>
+        <v>0.6409114859034176</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6302648036614348</v>
+        <v>0.6816952508215441</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.142173597812002</v>
+        <v>2.059381503008005</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2485591652083957</v>
+        <v>0.2542357353705379</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1348062405515565</v>
+        <v>0.1387724040687792</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.679412607398188</v>
+        <v>1.67971116783766</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-3.730092573154996</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.638341470641006</v>
+        <v>0.6383414706410073</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.972520544111755</v>
@@ -1083,7 +1083,7 @@
         <v>3.375893880817482</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>8.824850166073119</v>
+        <v>8.824850166073118</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-1.032091474988221</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.255707631818616</v>
+        <v>-5.301858011418807</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.200651166004629</v>
+        <v>-6.54624908625367</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.833739875178857</v>
+        <v>-2.650808147907163</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.03159227736983213</v>
+        <v>-0.1393160751130902</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2413091051419203</v>
+        <v>-0.08589927993980534</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.313107713725223</v>
+        <v>4.880999732184392</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.149381178466695</v>
+        <v>-3.486377700146428</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.228736733493706</v>
+        <v>-4.445177258681198</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.0841961870956219</v>
+        <v>0.06644790621400312</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2765896982512459</v>
+        <v>0.3229743221410031</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.083958966478916</v>
+        <v>-1.228108274448944</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.141576570357524</v>
+        <v>4.039211852573504</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.084747640671432</v>
+        <v>5.743395127630997</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.227418983451052</v>
+        <v>7.284594256593323</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.97809858606485</v>
+        <v>12.4719507544211</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.146379318052902</v>
+        <v>0.9643204885766175</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0717115768778291</v>
+        <v>-0.09260949218919712</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.309315583202225</v>
+        <v>5.323635952197103</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.5754686736422409</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.09848160929955367</v>
+        <v>0.09848160929955389</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>2.299848459919953</v>
@@ -1188,7 +1188,7 @@
         <v>2.611939674573829</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>6.827814227784379</v>
+        <v>6.827814227784377</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.1964239949701609</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6253840704790217</v>
+        <v>-0.6354000646723446</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7766769483273391</v>
+        <v>-0.7985758396879619</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3704201666373008</v>
+        <v>-0.3275935243235945</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.358044854879397</v>
+        <v>-0.3869484664690594</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4515309484383012</v>
+        <v>-0.4581734050809841</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9798025351205405</v>
+        <v>0.817964020144445</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5018066444371606</v>
+        <v>-0.5222152475048714</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6472491831100883</v>
+        <v>-0.6668081672471017</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.03269559549774578</v>
+        <v>-0.04423763732705494</v>
       </c>
     </row>
     <row r="21">
@@ -1243,25 +1243,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.06084694999210315</v>
+        <v>0.09864900955122487</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1847849776494244</v>
+        <v>-0.2020086945120538</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8050593153794445</v>
+        <v>0.8251262488175741</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>0.2882045448955107</v>
+        <v>0.246768728163749</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.05456005273748179</v>
+        <v>0.03702899787833277</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.329326959362211</v>
+        <v>1.270820704015795</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1300,7 @@
         <v>-2.409804479192427</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.118887549841765</v>
+        <v>2.118887549841766</v>
       </c>
     </row>
     <row r="23">
@@ -1311,31 +1311,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.931293951529315</v>
+        <v>-2.756183540449692</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.361517576954085</v>
+        <v>-4.1999176507493</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.394806840560028</v>
+        <v>-1.513768536677059</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.159822150893106</v>
+        <v>-2.281137534084849</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.701827289911989</v>
+        <v>-3.50035235187246</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.362711887441812</v>
+        <v>2.308116609304979</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.153284042787155</v>
+        <v>-2.038696463909721</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.52323490636163</v>
+        <v>-3.613000200620375</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5837503097594489</v>
+        <v>0.7350793606987607</v>
       </c>
     </row>
     <row r="24">
@@ -1346,31 +1346,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3812776734135649</v>
+        <v>0.2736492221160995</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.534188094881174</v>
+        <v>-1.347347556020139</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.168739765709137</v>
+        <v>2.155840441488698</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.703719285868328</v>
+        <v>1.679065647771798</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.2760769992706901</v>
+        <v>-0.03498162340650159</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.094346932890592</v>
+        <v>6.809616354057797</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3622282892625873</v>
+        <v>0.3444082745795816</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.32974734916591</v>
+        <v>-1.289496983965719</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.581687481924814</v>
+        <v>3.613892118922144</v>
       </c>
     </row>
     <row r="25">
@@ -1405,7 +1405,7 @@
         <v>-0.551513445613513</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4849335220226766</v>
+        <v>0.4849335220226769</v>
       </c>
     </row>
     <row r="26">
@@ -1416,31 +1416,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5291882477282726</v>
+        <v>-0.5185614494983938</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7966783982194308</v>
+        <v>-0.7858725540107937</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2707302342128531</v>
+        <v>-0.2858637555009491</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4400968950516085</v>
+        <v>-0.4443177532856528</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7073670094071319</v>
+        <v>-0.6985031735094325</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4128556986425503</v>
+        <v>0.4345024494606808</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4214101950673286</v>
+        <v>-0.4183150677968241</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6996239530146223</v>
+        <v>-0.7026763147603303</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1060828663223615</v>
+        <v>0.1379183351295872</v>
       </c>
     </row>
     <row r="27">
@@ -1451,31 +1451,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1158031876120976</v>
+        <v>0.080903765258872</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3825587474872125</v>
+        <v>-0.3598745637458389</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5587955528680303</v>
+        <v>0.5785383163426839</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.607357413209914</v>
+        <v>0.5508897977831417</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.0525186866924031</v>
+        <v>0.03447845336205711</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.404514779324946</v>
+        <v>2.292193215425219</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.103149958196443</v>
+        <v>0.09485975944712544</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3342629562173796</v>
+        <v>-0.3227219372282986</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9497780366315937</v>
+        <v>0.9473718102243884</v>
       </c>
     </row>
     <row r="28">
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.146681605605716</v>
+        <v>-6.019914530296731</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.287539786932215</v>
+        <v>-6.533008433732348</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.525521590309557</v>
+        <v>-4.845219438464164</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.141325115399216</v>
+        <v>-3.212167448317571</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.824389999897701</v>
+        <v>-2.690160548691175</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.8882396620649605</v>
+        <v>-0.9777435981321269</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.550484208767111</v>
+        <v>-3.695887386243131</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.581943578686592</v>
+        <v>-3.639373079255808</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.62392394239261</v>
+        <v>-1.775061372083258</v>
       </c>
     </row>
     <row r="30">
@@ -1560,31 +1560,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-1.041184928706096</v>
+        <v>-0.8292864740313129</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.474835570505428</v>
+        <v>-1.430349610129556</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.098459014629362</v>
+        <v>1.008594387016457</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1569730670001752</v>
+        <v>0.2151912662884759</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.50783042640492</v>
+        <v>0.6088805042147811</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.432791697237903</v>
+        <v>2.488000387766992</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.7865104780915128</v>
+        <v>-0.7466499145674315</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.7473658437625836</v>
+        <v>-0.7637292625975316</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.263796320709081</v>
+        <v>1.370728989189081</v>
       </c>
     </row>
     <row r="31">
@@ -1601,7 +1601,7 @@
         <v>-0.7555964563678965</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.3446230490101316</v>
+        <v>-0.3446230490101318</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.4606283497334257</v>
@@ -1630,31 +1630,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8789337079136385</v>
+        <v>-0.8769511067807043</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.9103301070551443</v>
+        <v>-0.9104328123855479</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6867714928442289</v>
+        <v>-0.704072485406584</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.799084693678712</v>
+        <v>-0.797486118744012</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7327598418468685</v>
+        <v>-0.7398042646000645</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2425534820097003</v>
+        <v>-0.2686070548684428</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.7613738888675926</v>
+        <v>-0.7839242573785988</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.7707106455018566</v>
+        <v>-0.7782094486023721</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3701025615055972</v>
+        <v>-0.3935738384746607</v>
       </c>
     </row>
     <row r="33">
@@ -1665,31 +1665,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.2409279407373333</v>
+        <v>-0.2056560897623252</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.4095253366395358</v>
+        <v>-0.3685242895000292</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3494430423404742</v>
+        <v>0.3722742847539454</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1490087003901946</v>
+        <v>0.1714728140359049</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3762065658282768</v>
+        <v>0.3770332098984453</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.429017657456932</v>
+        <v>1.524771901823661</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.2345047937132933</v>
+        <v>-0.2705585004314517</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2091784597899567</v>
+        <v>-0.2631535863879054</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4796597785105883</v>
+        <v>0.5161139949319482</v>
       </c>
     </row>
     <row r="34">
@@ -1719,7 +1719,7 @@
         <v>-1.853196936900595</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.2682586583908957</v>
+        <v>0.2682586583908964</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-1.26015112925228</v>
@@ -1728,7 +1728,7 @@
         <v>-0.9753518077134916</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>1.328419555085829</v>
+        <v>1.328419555085828</v>
       </c>
     </row>
     <row r="35">
@@ -1739,31 +1739,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.057126267939218</v>
+        <v>-2.193507996457869</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.1174085876042784</v>
+        <v>-0.3647717052767127</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.6917265840620015</v>
+        <v>0.5433031372817402</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.131994943785536</v>
+        <v>-3.18723187281074</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.396409767127023</v>
+        <v>-3.376137759168452</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.402068639282354</v>
+        <v>-1.615912681965627</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.556972539079406</v>
+        <v>-2.578760042554361</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.344649976360479</v>
+        <v>-2.320242165888838</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.431846341030023</v>
+        <v>-0.5673230831281504</v>
       </c>
     </row>
     <row r="36">
@@ -1774,31 +1774,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.523502535238507</v>
+        <v>2.450966788945896</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.631646000402553</v>
+        <v>5.754136218166261</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>13.0627562504969</v>
+        <v>13.39618820938898</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-0.02894659912277533</v>
+        <v>-0.06549176037706987</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-0.3428872383166445</v>
+        <v>-0.3679279749816838</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.299051637757186</v>
+        <v>2.279481844860347</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.1492781322420352</v>
+        <v>0.003783010838543365</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.4252432683849841</v>
+        <v>0.4719312087250975</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.64696907523664</v>
+        <v>3.68074544304439</v>
       </c>
     </row>
     <row r="37">
@@ -1824,7 +1824,7 @@
         <v>-0.4199412809739085</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06078840429416139</v>
+        <v>0.06078840429416155</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.319007000831894</v>
@@ -1833,7 +1833,7 @@
         <v>-0.2469101107890661</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.336289138879572</v>
+        <v>0.3362891388795718</v>
       </c>
     </row>
     <row r="38">
@@ -1844,31 +1844,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6680758442834809</v>
+        <v>-0.7178632522671257</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1226490033761254</v>
+        <v>-0.2712668736199431</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.008638434154201145</v>
+        <v>-0.09811304961824277</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.6210963922555117</v>
+        <v>-0.6085205341481075</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.6487087980810673</v>
+        <v>-0.6419101912520273</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.271562965163661</v>
+        <v>-0.3197775205723312</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.5599030857858224</v>
+        <v>-0.5579675715735286</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.5138744762332207</v>
+        <v>-0.4975271166915423</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1095419417972525</v>
+        <v>-0.1292215378118527</v>
       </c>
     </row>
     <row r="39">
@@ -1879,31 +1879,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.561096731806395</v>
+        <v>2.297260204690372</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>5.299531992732504</v>
+        <v>5.512666308437299</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>12.70101026309461</v>
+        <v>10.42729225947773</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.006399272774311915</v>
+        <v>-0.01052870568297954</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.08253264494859908</v>
+        <v>-0.08668320448753994</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.6553729513120432</v>
+        <v>0.6182913970144871</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.06304076990666342</v>
+        <v>0.0008446976201072817</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.152505930170972</v>
+        <v>0.1413384939522413</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.051329064635802</v>
+        <v>1.116386535294686</v>
       </c>
     </row>
     <row r="40">
@@ -1942,7 +1942,7 @@
         <v>-1.931120701172187</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>4.213225855034628</v>
+        <v>4.213225855034632</v>
       </c>
     </row>
     <row r="41">
@@ -1953,31 +1953,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.104223262825808</v>
+        <v>-3.20009089592684</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.120480037001096</v>
+        <v>-4.081733233532662</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.622325802427439</v>
+        <v>1.820093666452297</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.95406017677382</v>
+        <v>-2.111372497470347</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.830179723055253</v>
+        <v>-1.959746113070223</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>3.879406592974129</v>
+        <v>4.09176977068393</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.213984085477671</v>
+        <v>-2.2829204055434</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.674744359128614</v>
+        <v>-2.718046395058535</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>3.218892155977894</v>
+        <v>3.334537040115136</v>
       </c>
     </row>
     <row r="42">
@@ -1988,31 +1988,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.8051926646054672</v>
+        <v>-0.9054482796428999</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-1.936485622452735</v>
+        <v>-1.9354252884261</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.529942692269072</v>
+        <v>4.686449093712312</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.04053509317649542</v>
+        <v>-0.05620758399172433</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.244280181431167</v>
+        <v>0.1843017823845731</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.342520746153517</v>
+        <v>6.394433372242232</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-0.7283173319813621</v>
+        <v>-0.6645218965978524</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-1.113809698633996</v>
+        <v>-1.165640795633686</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.21495685971903</v>
+        <v>5.197186358105441</v>
       </c>
     </row>
     <row r="43">
@@ -2047,7 +2047,7 @@
         <v>-0.3285445820324024</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.7168026973716538</v>
+        <v>0.7168026973716544</v>
       </c>
     </row>
     <row r="44">
@@ -2058,31 +2058,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.429524930325303</v>
+        <v>-0.4359264895277157</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5734040385449493</v>
+        <v>-0.5788966244566086</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.2198694998209632</v>
+        <v>0.2547148556631551</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3404031972882033</v>
+        <v>-0.3543644615437753</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3276929340308372</v>
+        <v>-0.3377676423600751</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6685745914530661</v>
+        <v>0.711780358393107</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3585354513542073</v>
+        <v>-0.354994632648634</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4248895815123301</v>
+        <v>-0.4339206820431845</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.4988236991644075</v>
+        <v>0.5237099445486538</v>
       </c>
     </row>
     <row r="45">
@@ -2093,31 +2093,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1263895096853334</v>
+        <v>-0.1505845032367228</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.3285316669838251</v>
+        <v>-0.3265394512404887</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.7476794639799919</v>
+        <v>0.7753459816631096</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.01567029338521258</v>
+        <v>-0.00527625735781516</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.05686022026500575</v>
+        <v>0.03942772693717633</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.36889292533331</v>
+        <v>1.401025857457024</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.137178430897878</v>
+        <v>-0.1194908772304081</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.1994936538469765</v>
+        <v>-0.2099285709341273</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.9566885450261544</v>
+        <v>0.9445564106716217</v>
       </c>
     </row>
     <row r="46">
